--- a/BalanceSheet/SBUX_bal.xlsx
+++ b/BalanceSheet/SBUX_bal.xlsx
@@ -5035,7 +5035,7 @@
         <v>20294000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>17522000000.0</v>
+        <v>8540900000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>8409900000.0</v>
@@ -5162,7 +5162,7 @@
         <v>22919000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>20631000000.0</v>
+        <v>11649800000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>11167000000.0</v>
